--- a/VoelkenrathMA/query_results/GUI_Q1_results.xlsx
+++ b/VoelkenrathMA/query_results/GUI_Q1_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12558&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13254&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12559&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13255&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.0001ms_wod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12560&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12210&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12561&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12211&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12562&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13256&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12563&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13257&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.001ms_wod</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12564&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12212&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12565&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12213&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_100000.0Pa_1.0ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12566&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13258&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12567&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13259&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.01ms_wod</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12588&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12214&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12589&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12215&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12590&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13260&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12591&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13261&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.1ms_wod</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12592&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12216&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12593&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12217&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12594&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13262&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12595&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13263&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_273.0K_500000.0Pa_1.0ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_1.0ms_wod</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12596&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12218&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12597&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12219&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13254&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13244&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13255&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13245&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.0001ms_wod</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13256&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12200&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13257&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12201&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13258&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13246&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13259&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13247&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.001ms_wod</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13260&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12202&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13261&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12203&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_100000.0Pa_1.0ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13262&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13248&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13263&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13249&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.01ms_wod</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13284&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12204&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13285&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12205&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13286&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13250&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13287&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13251&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_0.1ms_wod</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13288&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12206&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13289&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12207&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13290&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13252&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13291&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13253&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_1.0ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_1000000.0Pa_1.0ms_wod</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13292&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12208&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13293&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12209&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12906&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13264&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12907&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13265&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.0001ms_wod</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12908&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12220&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12909&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12221&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12910&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13266&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12911&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13267&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.001ms_wod</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12912&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12222&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12913&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12223&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_1.0ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12914&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13268&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12915&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13269&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.0001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.01ms_wod</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12936&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12224&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12937&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12225&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.001ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12938&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13270&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12939&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13271&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_0.1ms_wod</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12940&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12226&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12941&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12227&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.1ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12942&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13272&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12943&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13273&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,1397 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_1.0ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_2000000.0Pa_1.0ms_wod</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12944&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12228&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12945&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12229&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13274&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13275&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_3000000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12230&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12231&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13276&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13277&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_3000000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12232&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12233&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13278&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13279&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_3000000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12234&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12235&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13280&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13281&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_3000000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12236&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12237&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13282&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13283&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_3000000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12238&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12239&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13284&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13285&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12240&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12241&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13286&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13287&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12242&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12243&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13288&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13289&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12244&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12245&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13290&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13291&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12246&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12247&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13292&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13293&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_273.0K_500000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12248&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12249&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13304&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13305&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12258&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12259&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13306&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13307&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12260&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12261&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13308&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13309&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12262&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12263&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13310&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13311&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12264&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12265&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13312&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13313&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_100000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12266&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12267&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13294&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13295&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13296&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13297&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12250&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12251&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13298&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13299&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12252&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12253&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13300&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13301&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12254&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12255&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13302&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13303&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_1000000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12256&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12257&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13314&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13315&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12268&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12269&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13316&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13317&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12270&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12271&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13318&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13319&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12272&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12273&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13320&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13321&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12274&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12275&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13322&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13323&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_2000000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12276&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12277&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13324&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13325&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_3000000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12278&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12279&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13326&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13327&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_3000000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12280&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12281&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13328&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13329&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_3000000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12282&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12283&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13330&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13331&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_3000000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12284&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12285&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13332&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13333&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_3000000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12286&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12287&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13334&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13335&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12288&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12289&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13336&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13337&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12290&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12291&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13338&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13339&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12292&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12293&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13340&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13341&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12294&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12295&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13342&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13343&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_373.0K_500000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12296&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12297&amp;version=DRAFT</t>
         </is>
       </c>
     </row>

--- a/VoelkenrathMA/query_results/GUI_Q1_results.xlsx
+++ b/VoelkenrathMA/query_results/GUI_Q1_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12648&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12906&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12649&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12907&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_473.0K_1000000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.0001ms_wod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11606&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11860&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11607&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11861&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.001ms_wd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12698&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12908&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12699&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12909&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.04_573.0K_1000000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.001ms_wod</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11656&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11862&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11657&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11863&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.01ms_wd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13348&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12910&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13349&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12911&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_473.0K_1000000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.01ms_wod</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12302&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11864&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12303&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11865&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.1ms_wd</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13398&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12912&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13399&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12913&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.2_573.0K_1000000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_0.1ms_wod</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12352&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11866&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12353&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11867&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_1.0ms_wd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13000&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12914&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13001&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12915&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_473.0K_1000000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_100000.0Pa_1.0ms_wod</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11954&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11868&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11955&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11869&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_1000000.0Pa_0.01ms_wd</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.0001ms_wd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13046&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12896&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=13047&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12897&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,1777 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_573.0K_1000000.0Pa_0.01ms_wod</t>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.0001ms_wod</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12004&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11850&amp;version=DRAFT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12005&amp;version=DRAFT</t>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11851&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12898&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12899&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11852&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11853&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12900&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12901&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11854&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11855&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12902&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12903&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11856&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11857&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12904&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12905&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_1000000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11858&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11859&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12916&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12917&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11870&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11871&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12918&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12919&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11872&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11873&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12920&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12921&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11874&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11875&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12922&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12923&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11876&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11877&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12924&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12925&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_2000000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11878&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11879&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12926&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12927&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_3000000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11880&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11881&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12928&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12929&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_3000000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11882&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11883&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12930&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12931&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_3000000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11884&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11885&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12932&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12933&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_3000000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11886&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11887&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12934&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12935&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_3000000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11888&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11889&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12936&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12937&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11890&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11891&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12938&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12939&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11892&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11893&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12940&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12941&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11894&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11895&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12942&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12943&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11896&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11897&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12944&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12945&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_273.0K_500000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11898&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11899&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12956&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12957&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11910&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11911&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12958&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12959&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11912&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11913&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12960&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12961&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11914&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11915&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12962&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12963&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11916&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11917&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12964&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12965&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_100000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11918&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11919&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12946&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12947&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11900&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11901&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12948&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12949&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11902&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11903&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12950&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12951&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11904&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11905&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12952&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12953&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11906&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11907&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12954&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12955&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_1000000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11908&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11909&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12966&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12967&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11920&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11921&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12968&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12969&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11922&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11923&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12970&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12971&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11924&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11925&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12972&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12973&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11926&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11927&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12974&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12975&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_2000000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11928&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11929&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_3000000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12976&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12977&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_3000000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11930&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11931&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_3000000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12978&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12979&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_3000000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11932&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11933&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_3000000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12980&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12981&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_3000000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11934&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11935&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_3000000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12982&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12983&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_3000000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11936&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11937&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_3000000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12984&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12985&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_3000000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11938&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11939&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.0001ms_wd</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12986&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12987&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.0001ms_wod</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11940&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11941&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.001ms_wd</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12988&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12989&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.001ms_wod</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11942&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11943&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.01ms_wd</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12990&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12991&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.01ms_wod</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11944&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11945&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.1ms_wd</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12992&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12993&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_0.1ms_wod</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11946&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11947&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_1.0ms_wd</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12994&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=12995&amp;version=DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>merged-without-qudt-and-inferred.Sim_Methanation_0.5_373.0K_500000.0Pa_1.0ms_wod</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11948&amp;version=DRAFT</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://nfdirepo.fokus.fraunhofer.de/file.xhtml?fileId=11949&amp;version=DRAFT</t>
         </is>
       </c>
     </row>
